--- a/06Billing/Billing_test.xlsx
+++ b/06Billing/Billing_test.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA\06Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4sooh\Documents\UiPath\RPA수업\06Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42BEBF5-F434-497C-BE26-5CF3B90F2C0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="0" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <x:sheet name="Sheet3" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Sheet4" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <x:sheet name="Sheet4" sheetId="7" r:id="rId4"/>
+    <x:sheet name="Sheet1111" sheetId="8" r:id="rId8"/>
+    <x:sheet name="Sheet2222" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <x:si>
     <x:t>BHDR0000BILCDE</x:t>
   </x:si>
@@ -683,12 +684,21 @@
   </x:si>
   <x:si>
     <x:t>RefAamount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reference No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RefAmount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5582.52</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -1015,29 +1025,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J38"/>
+  <x:dimension ref="A1:W38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B25" sqref="B25"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="17.4" x14ac:dyDescent="0.4"/>
   <x:cols>
-    <x:col min="1" max="1" width="50.875" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="50.898438" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="43.5" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="24.75" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="22.625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="18.75" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="24.875" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="8" width="10.625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="24.699219" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="22.597656" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="18.699219" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="24.898438" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="8" width="10.597656" style="0" bestFit="1" customWidth="1"/>
     <x:col min="9" max="9" width="13.5" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1045,7 +1055,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -1080,7 +1090,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1094,7 +1104,7 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -1111,7 +1121,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -1152,7 +1162,7 @@
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
@@ -1190,7 +1200,7 @@
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
@@ -1219,7 +1229,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A8" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -1248,7 +1258,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A9" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
@@ -1277,7 +1287,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A10" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -1306,7 +1316,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A11" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -1335,7 +1345,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A12" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -1364,7 +1374,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A13" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -1393,7 +1403,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A14" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -1422,7 +1432,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A15" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -1451,7 +1461,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A16" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -1483,12 +1493,12 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A17" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A18" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -1517,7 +1527,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A19" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
@@ -1546,7 +1556,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A20" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -1575,7 +1585,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A21" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
@@ -1604,17 +1614,17 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A22" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A23" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A24" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -1628,7 +1638,7 @@
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A25" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -1642,7 +1652,7 @@
         <x:v>112</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A26" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -1659,7 +1669,7 @@
         <x:v>114</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A27" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -1676,7 +1686,7 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A28" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -1690,7 +1700,7 @@
         <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A29" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -1704,7 +1714,7 @@
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A30" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -1715,7 +1725,7 @@
         <x:v>118</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A31" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
@@ -1729,7 +1739,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A32" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -1800,7 +1810,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A33" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
@@ -1853,7 +1863,7 @@
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A34" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
@@ -1897,7 +1907,7 @@
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A35" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
@@ -1905,7 +1915,7 @@
         <x:v>144</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A36" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -1952,7 +1962,7 @@
         <x:v>149</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A37" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
@@ -1990,7 +2000,7 @@
         <x:v>155</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <x:row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <x:c r="A38" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
@@ -2006,19 +2016,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:J17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="M11" sqref="M11"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="17.4" x14ac:dyDescent="0.4"/>
   <x:sheetData>
-    <x:row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A1" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
@@ -2050,7 +2060,7 @@
         <x:v>166</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A2" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
@@ -2079,7 +2089,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A3" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -2108,7 +2118,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A4" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
@@ -2137,7 +2147,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A5" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -2166,7 +2176,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A6" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -2195,7 +2205,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A7" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -2224,7 +2234,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A8" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -2253,7 +2263,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A9" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -2282,7 +2292,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A10" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -2311,7 +2321,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A11" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -2340,12 +2350,12 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A12" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A13" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -2374,7 +2384,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A14" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
@@ -2403,7 +2413,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A15" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2432,7 +2442,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A16" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
@@ -2461,7 +2471,7 @@
         <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A17" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
@@ -2480,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2488,159 +2498,321 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="17.4" x14ac:dyDescent="0.4"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:phoneticPr fontId="1" type="noConversion"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="17.4" x14ac:dyDescent="0.4"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:phoneticPr fontId="1" type="noConversion"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B14"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
+    <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3">
+    <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:3">
+    <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:3">
+    <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:3">
+    <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
         <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:3">
+    <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:3">
+    <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:3">
+    <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:3">
+    <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:3">
+    <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
     </x:row>
@@ -2653,23 +2825,25 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1:A2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="0" t="s">
+        <x:v>220</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
